--- a/fabrication/V0.0.3/_bom_bl49sp_V0.0.3_20210202.xlsx
+++ b/fabrication/V0.0.3/_bom_bl49sp_V0.0.3_20210202.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="176">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -169,16 +169,19 @@
     <t xml:space="preserve">C15850 </t>
   </si>
   <si>
-    <t xml:space="preserve">CL21A226MAQNNNE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22uF ±20% 25V X5R 0805 Multilayer Ceramic Capacitors MLCC – SMD/SMT</t>
+    <t xml:space="preserve">C3216X5R1V226MTJ00E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22UF ±20% 35V X5R 1206 MULTILAYER CERAMIC CAPACITORS MLCC </t>
   </si>
   <si>
     <t xml:space="preserve">C6</t>
   </si>
   <si>
-    <t xml:space="preserve">C45783 </t>
+    <t xml:space="preserve">1206_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C342620 </t>
   </si>
   <si>
     <t xml:space="preserve">0603B222K500NT </t>
@@ -725,13 +728,13 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.84"/>
@@ -936,486 +939,486 @@
         <v>51</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="7" t="s">
         <v>52</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,7 +1438,7 @@
     <hyperlink ref="E9" r:id="rId8" display="C1663 "/>
     <hyperlink ref="E10" r:id="rId9" display="C15849 "/>
     <hyperlink ref="E11" r:id="rId10" display="C15850 "/>
-    <hyperlink ref="E12" r:id="rId11" display="C45783 "/>
+    <hyperlink ref="E12" r:id="rId11" display="C342620"/>
     <hyperlink ref="E13" r:id="rId12" display="C1604 "/>
     <hyperlink ref="E15" r:id="rId13" display="C25967 "/>
     <hyperlink ref="E16" r:id="rId14" display="C21117 "/>
